--- a/girl.xlsx
+++ b/girl.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t xml:space="preserve">Serkali Aray</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t xml:space="preserve">`007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`008</t>
   </si>
 </sst>
 </file>
@@ -320,13 +326,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9:E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.31"/>
   </cols>
@@ -447,13 +453,157 @@
         <v>3</v>
       </c>
       <c r="E7" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
